--- a/template/学生基本信息.xlsx
+++ b/template/学生基本信息.xlsx
@@ -1,206 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="15015" windowWidth="27765" xWindow="1035" yWindow="1680"/>
+    <workbookView windowWidth="18330" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>学号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>年级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>班级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>宿舍</t>
   </si>
   <si>
     <t>联系方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>QQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>出生年月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>身高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>专业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>政治面貌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>籍贯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高考成绩/满分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高考英语成绩/满分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英语入学考试成绩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>家乡所在火车站</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>省份</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>所在城市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>家庭详细地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>家庭电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>邮政编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>特长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高中曾任职务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高中曾获奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否有科技竞赛类获奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>父亲姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>父亲工作单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>父亲工作单位详细地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>父亲职务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>父亲邮编</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>父亲电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>母亲姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>母亲工作单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>母亲工作单位详细地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>母亲职务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>母亲邮编</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>母亲电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2016220305014</t>
-  </si>
-  <si>
-    <t>陈靖2</t>
+  </si>
+  <si>
+    <t>2016220305023</t>
+  </si>
+  <si>
+    <t>申志强</t>
   </si>
   <si>
     <t>2016</t>
@@ -230,7 +175,7 @@
     <t>1422537078@qq.com</t>
   </si>
   <si>
-    <t>Fri Mar 21 00:00:00 CST 1997</t>
+    <t>1997-03-21</t>
   </si>
   <si>
     <t>180.0</t>
@@ -239,7 +184,7 @@
     <t>软件技术</t>
   </si>
   <si>
-    <t>团员</t>
+    <t>共青团员</t>
   </si>
   <si>
     <t>汉族</t>
@@ -254,7 +199,7 @@
     <t>141/150</t>
   </si>
   <si>
-    <t>70</t>
+    <t>80</t>
   </si>
   <si>
     <t>资中</t>
@@ -263,7 +208,7 @@
     <t>内江</t>
   </si>
   <si>
-    <t>四川省资中县陈家镇</t>
+    <t>四川资中</t>
   </si>
   <si>
     <t>68874298</t>
@@ -278,62 +223,36 @@
     <t>体育委员</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>申金堂</t>
   </si>
   <si>
-    <t>厂长</t>
-  </si>
-  <si>
     <t>桂学英</t>
   </si>
   <si>
-    <t>员工</t>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>工人</t>
   </si>
   <si>
     <t>15058859819</t>
-  </si>
-  <si>
-    <t>2016220305023</t>
-  </si>
-  <si>
-    <t>申志强</t>
-  </si>
-  <si>
-    <t>共青团员</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>四川资中</t>
-  </si>
-  <si>
-    <t>浙江</t>
-  </si>
-  <si>
-    <t>工人</t>
-  </si>
-  <si>
-    <t>1997-03-21</t>
-  </si>
-  <si>
-    <t>80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,40 +260,362 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -397,33 +638,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -432,10 +954,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -470,7 +992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,7 +1027,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,21 +1121,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -630,7 +1152,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -680,414 +1202,282 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AP1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="42" style="3" width="11.0" collapsed="true"/>
+    <col min="1" max="42" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row ht="24" r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" ht="24" spans="1:42">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
       <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>57</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>59</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>60</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>62</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
         <v>63</v>
       </c>
-      <c r="V2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>64</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AL2" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" t="s">
         <v>73</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>